--- a/server/src/uploads/results.xlsx
+++ b/server/src/uploads/results.xlsx
@@ -8,47 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\krksa\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB7E731F-8330-4249-BCFF-B6A731F9BD79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1ABBED9-F07E-431F-96ED-C156D7676223}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="34">
-  <si>
-    <r>
-      <rPr>
-        <sz val="15"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">JAWAHARLAL NEHRU TECHNOLOGICAL UNIVERSITY KAKINADA
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Revaluation/Recounting Results for   III B.Tech II semester (R19) Examinations November-2022
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>College: KALLAM HARINATHA REDDY INSTITUTE OF TECH., CHOWDAVARAM, GTR:8X</t>
-    </r>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="15">
   <si>
     <r>
       <rPr>
@@ -106,27 +78,57 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>198X1A0205</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>R1932022</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>POWER SYSTEM ANALYSIS</t>
+      <t>198X1A04C0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>R19BS1101</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>MATHEMATICS-I</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>No Change</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>198X1A04C4</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>198X1A0586</t>
     </r>
   </si>
   <si>
@@ -146,238 +148,28 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>R193204J</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>PRINCIPLES OF COMMUNICATION (EXCEPT ECE)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>198X1A0457</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>R193204G</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>POWER ELECTRONICS</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>No Change</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>198X1A04H0</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>R1932042</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>VLSI DESIGN</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>198X1A04H6</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>R193204A</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>CELLULAR &amp; MOBILE COMMUNICATION</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>198X1A0510</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>198X1A0525</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>R1932051</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>WEB TECHNOLOGIES</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>198X1A0578</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>R1932053</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>DESIGN AND ANALYSIS OF ALGORITHMS</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>198X1A0588</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>198X1A05C1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>198X1A05C9</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Date:12-04-2023                                                                Controller of Examinations(UG)</t>
-    </r>
-  </si>
-  <si>
-    <t>No Change</t>
+      <t>198X1A05F8</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>198X1A05G8</t>
+    </r>
+  </si>
+  <si>
+    <t>198X1A05E6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -399,22 +191,7 @@
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="15"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -432,7 +209,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -479,11 +256,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -496,16 +286,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="1" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -513,6 +303,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="8"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -543,7 +336,7 @@
     <xdr:ext cx="508000" cy="620610"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="image1.jpeg">
+        <xdr:cNvPr id="2" name="image1.png">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
@@ -580,10 +373,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>529435</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>1003579</xdr:rowOff>
+      <xdr:rowOff>1026439</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="6039485" cy="0"/>
     <xdr:sp macro="" textlink="">
@@ -599,7 +392,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="0"/>
+          <a:off x="839315" y="1026439"/>
           <a:ext cx="6039485" cy="0"/>
         </a:xfrm>
         <a:custGeom>
@@ -632,11 +425,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>2984500</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>579577</xdr:rowOff>
+      <xdr:colOff>638859</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>329133</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1524000" cy="254000"/>
+    <xdr:ext cx="1456640" cy="508000"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="4" name="image2.jpeg">
@@ -665,7 +458,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="1524000" cy="254000"/>
+          <a:ext cx="1456640" cy="508000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -998,36 +791,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.21875" customWidth="1"/>
-    <col min="2" max="2" width="16.21875" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" customWidth="1"/>
-    <col min="4" max="4" width="59.33203125" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" customWidth="1"/>
-    <col min="6" max="6" width="18.21875" customWidth="1"/>
-    <col min="7" max="7" width="9.33203125" customWidth="1"/>
+    <col min="1" max="1" width="16.21875" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" customWidth="1"/>
+    <col min="3" max="3" width="20.88671875" customWidth="1"/>
+    <col min="4" max="5" width="14" customWidth="1"/>
+    <col min="6" max="6" width="23.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="95.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
-        <v>0</v>
-      </c>
+    <row r="1" spans="1:6" ht="95.55" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="8"/>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
       <c r="D1" s="8"/>
       <c r="E1" s="8"/>
       <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
     </row>
-    <row r="2" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
+    <row r="2" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1040,13 +830,12 @@
       <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
       <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
@@ -1057,218 +846,112 @@
         <v>8</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="4">
+      <c r="B4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="6">
         <v>3</v>
       </c>
-      <c r="G3" s="1"/>
+      <c r="F6" s="1"/>
     </row>
-    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="5" t="s">
+    <row r="7" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="6">
-        <v>3</v>
-      </c>
-      <c r="G4" s="1"/>
+      <c r="C7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="1"/>
     </row>
-    <row r="5" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="7" t="s">
+    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G5" s="1"/>
+      <c r="B8" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="1"/>
     </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="1:7" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12" s="6">
-        <v>3</v>
-      </c>
-      <c r="G12" s="1"/>
-    </row>
-    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="1:7" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
+    <row r="9" spans="1:6" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A14:G14"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A9:F9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
